--- a/tmplate_linux.xlsx
+++ b/tmplate_linux.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeidaiWatanabe\Desktop\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeidaiWatanabe\Desktop\command-ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159FE005-CFEE-4458-B0A6-BDD432B02464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1849D49-713B-49C1-9171-A1987DA12362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>コマンド</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,80 @@
     <rPh sb="2" eb="4">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルやディレクトリの一覧を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>option	説明
+-a	隠しファイルを含め、すべてのファイルを表示する
+-A	「.」「..」以外のすべてのファイルを表示する
+-d	ディレクトリそのものの情報を表示する
+-F	ディレクトリは「/」、シンボリックリンクは「@」、実行可能ファイルは「*」を表示する
+-G	ファイルやディレクトリを色分けして表示する
+-h	サイズの単位を表示する（[-l]オプションを同時に指定する）
+-l	詳細情報を表示する
+-r	逆順に表示する
+-S	サイズの大きい順にソートして表示する
+-s	サイズをブロック単位で表示する
+-t	修正時刻順にソートして表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリの内容を確認するために使用されます。ファイルやディレクトリの詳細情報や属性を表示することができます。
+パスの指定：パスを指定しない場合、カレントディレクトリの内容が表示されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ls ~/Documents
+project1		report.pdf		notes.txt
+project2		data			scripts
+ls -A ~/Documents
+.hiddenfile     project1        report.pdf      notes.txt
+project2        data            scripts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足情報</t>
+    <rPh sb="0" eb="4">
+      <t>ホソクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">各ファイル・ディレクトリの詳細の見方
+1. 最初の文字（-）はファイルタイプを示します。
+-: 通常のファイル
+d: ディレクトリ
+l: シンボリックリンク
+c: キャラクターデバイスファイル
+b: ブロックデバイスファイル
+2. 次の9文字（はファイルのパーミッションを示します。
+最初の3文字：所有者（user）の権限（読み取りr、書き込みw、実行x）
+次の3文字：グループ（group）の権限（読み取りr、書き込みw、実行x）
+最後の3文字：その他のユーザー（other）の権限（読み取りr、書き込みw、実行x）
+９文字の続きに@や+がある場合。
+@：ファイルやディレクトリに拡張属性（Extended Attributes）が存在することを示します。
++：ファイルやディレクトリにACL（アクセス制御リスト）が設定されていることを示します。
+-rw-r--r-- 1 user user 2048 Jan 1 00:00 report.pdf
+この例では、
+所有者（user）の権限（rw-）：読み取り（r）、書き込み（w）。実行（x）の権限はない。
+グループ（group）の権限（r--）：読み取り（r）のみ。書き込み（w）や実行（x）の権限はない。
+その他のユーザー（other）の権限（r--）：読み取り（r）のみ。書き込み（w）や実行（x）の権限はない。
+3. ハードリンクの数
+ディレクトリの場合、この数はそのディレクトリ内のサブディレクトリの数を含むリンクの数を表示します。
+4. 所有者
+5. グループ
+6. ファイルサイズ
+7. 最終更新日時
+8. ファイル名
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ls</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -106,8 +180,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -388,23 +468,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="61.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.625" customWidth="1"/>
     <col min="6" max="6" width="33.25" customWidth="1"/>
     <col min="7" max="7" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,6 +503,32 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
